--- a/Bike_store_dash_board/Bike Sales Dashboard.xlsx
+++ b/Bike_store_dash_board/Bike Sales Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Data_Analytics\Excel\Bike_store_dash_board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E47DA7-EA13-4BF0-B920-EFCF8565B45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751135C8-7123-484A-8B72-49F679F5B720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -738,7 +738,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -755,7 +755,6 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -803,40 +802,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -8246,8 +8212,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>27517</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="Marital Status">
@@ -8270,7 +8236,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8324,8 +8290,8 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>21167</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Education">
@@ -8348,7 +8314,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8402,8 +8368,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>52917</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="Region">
@@ -8426,7 +8392,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8545,16 +8511,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>27517</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>408518</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>72572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>497417</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>270632</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>72572</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8569,8 +8535,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4938184" y="243417"/>
-          <a:ext cx="4766733" cy="635000"/>
+          <a:off x="5878589" y="254001"/>
+          <a:ext cx="4724400" cy="635000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8614,16 +8580,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>137583</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>527655</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>190502</xdr:rowOff>
+      <xdr:rowOff>181430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>169334</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>559405</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>178319</xdr:rowOff>
+      <xdr:rowOff>169247</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8652,8 +8618,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5048250" y="370419"/>
-          <a:ext cx="645584" cy="442900"/>
+          <a:off x="5997726" y="362859"/>
+          <a:ext cx="639536" cy="441388"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24929,7 +24895,151 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F82BF03-D3AF-4EA4-9A7E-E552DA132F5D}" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3613F30C-DEB4-4F1D-BD1B-B7D66ED9B8FF}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A7:D14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="13"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Purchased Bike" fld="13" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F82BF03-D3AF-4EA4-9A7E-E552DA132F5D}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F15:G18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -24985,8 +25095,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{793E697E-C43C-4A5A-8BEC-B1563A630BE0}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{793E697E-C43C-4A5A-8BEC-B1563A630BE0}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A1:D5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -25070,7 +25180,7 @@
     <dataField name="Average of Income" fld="3" subtotal="average" baseField="2" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="11">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -25112,8 +25222,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A73DCD44-6947-47F4-89C0-FF3FA8545C95}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A73DCD44-6947-47F4-89C0-FF3FA8545C95}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="F10:G13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -25242,8 +25352,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{52667415-D4BD-445C-9110-7F01B6B64BA1}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="No of Cars">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{52667415-D4BD-445C-9110-7F01B6B64BA1}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="No of Cars">
   <location ref="F1:I8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -25376,8 +25486,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6001489C-DCDD-4842-9DA0-AAF10949B2CE}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6001489C-DCDD-4842-9DA0-AAF10949B2CE}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A16:D21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -25442,150 +25552,6 @@
     </i>
     <i>
       <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="13"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Purchased Bike" fld="13" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3613F30C-DEB4-4F1D-BD1B-B7D66ED9B8FF}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A7:D14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -71156,13 +71122,13 @@
       <c r="F3" s="4">
         <v>0</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3">
         <v>96</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3">
         <v>151</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3">
         <v>247</v>
       </c>
     </row>
@@ -71182,13 +71148,13 @@
       <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4">
         <v>115</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4">
         <v>152</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4">
         <v>267</v>
       </c>
     </row>
@@ -71208,13 +71174,13 @@
       <c r="F5" s="4">
         <v>2</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5">
         <v>218</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5">
         <v>124</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5">
         <v>342</v>
       </c>
     </row>
@@ -71222,13 +71188,13 @@
       <c r="F6" s="4">
         <v>3</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6">
         <v>52</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6">
         <v>33</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6">
         <v>85</v>
       </c>
     </row>
@@ -71242,13 +71208,13 @@
       <c r="F7" s="4">
         <v>4</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7">
         <v>38</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7">
         <v>21</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7">
         <v>59</v>
       </c>
     </row>
@@ -71268,13 +71234,13 @@
       <c r="F8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8">
         <v>519</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8">
         <v>481</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8">
         <v>1000</v>
       </c>
     </row>
@@ -71282,13 +71248,13 @@
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9">
         <v>166</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9">
         <v>200</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9">
         <v>366</v>
       </c>
     </row>
@@ -71296,13 +71262,13 @@
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10">
         <v>92</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10">
         <v>77</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10">
         <v>169</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -71316,19 +71282,19 @@
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11">
         <v>67</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11">
         <v>95</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11">
         <v>162</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11">
         <v>317</v>
       </c>
     </row>
@@ -71336,19 +71302,19 @@
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12">
         <v>116</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12">
         <v>76</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12">
         <v>192</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12">
         <v>683</v>
       </c>
     </row>
@@ -71356,19 +71322,19 @@
       <c r="A13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13">
         <v>78</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13">
         <v>33</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13">
         <v>111</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13">
         <v>1000</v>
       </c>
     </row>
@@ -71376,13 +71342,13 @@
       <c r="A14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14">
         <v>519</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14">
         <v>481</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14">
         <v>1000</v>
       </c>
     </row>
@@ -71404,7 +71370,7 @@
       <c r="F16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16">
         <v>519</v>
       </c>
     </row>
@@ -71424,7 +71390,7 @@
       <c r="F17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17">
         <v>481</v>
       </c>
     </row>
@@ -71432,19 +71398,19 @@
       <c r="A18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18">
         <v>71</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18">
         <v>39</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18">
         <v>110</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18">
         <v>1000</v>
       </c>
     </row>
@@ -71452,13 +71418,13 @@
       <c r="A19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19">
         <v>318</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19">
         <v>383</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19">
         <v>701</v>
       </c>
     </row>
@@ -71466,13 +71432,13 @@
       <c r="A20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20">
         <v>130</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20">
         <v>59</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20">
         <v>189</v>
       </c>
     </row>
@@ -71480,13 +71446,13 @@
       <c r="A21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21">
         <v>519</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21">
         <v>481</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21">
         <v>1000</v>
       </c>
     </row>
@@ -71503,7 +71469,7 @@
   <dimension ref="A1:Y48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y25" sqref="Y25"/>
+      <selection activeCell="Z36" sqref="Z36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -71645,1135 +71611,1135 @@
       <c r="X5" s="7"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="13"/>
-      <c r="X33" s="13"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="13"/>
-      <c r="X34" s="13"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="14"/>
-      <c r="W36" s="14"/>
-      <c r="X36" s="14"/>
-      <c r="Y36" s="14"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="13"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="14"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="14"/>
-      <c r="V37" s="14"/>
-      <c r="W37" s="14"/>
-      <c r="X37" s="14"/>
-      <c r="Y37" s="14"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="13"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="14"/>
-      <c r="W38" s="14"/>
-      <c r="X38" s="14"/>
-      <c r="Y38" s="14"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="14"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="14"/>
-      <c r="V39" s="14"/>
-      <c r="W39" s="14"/>
-      <c r="X39" s="14"/>
-      <c r="Y39" s="14"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="13"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="14"/>
-      <c r="W40" s="14"/>
-      <c r="X40" s="14"/>
-      <c r="Y40" s="14"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="13"/>
+      <c r="Y40" s="13"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="14"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="14"/>
-      <c r="V41" s="14"/>
-      <c r="W41" s="14"/>
-      <c r="X41" s="14"/>
-      <c r="Y41" s="14"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
+      <c r="Y41" s="13"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="14"/>
-      <c r="W42" s="14"/>
-      <c r="X42" s="14"/>
-      <c r="Y42" s="14"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="13"/>
+      <c r="Y42" s="13"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="14"/>
-      <c r="V43" s="14"/>
-      <c r="W43" s="14"/>
-      <c r="X43" s="14"/>
-      <c r="Y43" s="14"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
+      <c r="W43" s="13"/>
+      <c r="X43" s="13"/>
+      <c r="Y43" s="13"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="14"/>
-      <c r="W44" s="14"/>
-      <c r="X44" s="14"/>
-      <c r="Y44" s="14"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+      <c r="Y44" s="13"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="14"/>
-      <c r="T45" s="14"/>
-      <c r="U45" s="14"/>
-      <c r="V45" s="14"/>
-      <c r="W45" s="14"/>
-      <c r="X45" s="14"/>
-      <c r="Y45" s="14"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="13"/>
+      <c r="Y45" s="13"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="14"/>
-      <c r="T46" s="14"/>
-      <c r="U46" s="14"/>
-      <c r="V46" s="14"/>
-      <c r="W46" s="14"/>
-      <c r="X46" s="14"/>
-      <c r="Y46" s="14"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+      <c r="W46" s="13"/>
+      <c r="X46" s="13"/>
+      <c r="Y46" s="13"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="14"/>
-      <c r="S47" s="14"/>
-      <c r="T47" s="14"/>
-      <c r="U47" s="14"/>
-      <c r="V47" s="14"/>
-      <c r="W47" s="14"/>
-      <c r="X47" s="14"/>
-      <c r="Y47" s="14"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="13"/>
+      <c r="Y47" s="13"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="14"/>
-      <c r="T48" s="14"/>
-      <c r="U48" s="14"/>
-      <c r="V48" s="14"/>
-      <c r="W48" s="14"/>
-      <c r="X48" s="14"/>
-      <c r="Y48" s="14"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="13"/>
+      <c r="Y48" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bike_store_dash_board/Bike Sales Dashboard.xlsx
+++ b/Bike_store_dash_board/Bike Sales Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Data_Analytics\Excel\Bike_store_dash_board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751135C8-7123-484A-8B72-49F679F5B720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B597B717-03D8-4819-8290-B4ECD5D9249B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8062" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8058" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>Middle Age</t>
-  </si>
-  <si>
-    <t>Old</t>
   </si>
   <si>
     <t>No of Cars</t>
@@ -738,7 +735,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -757,6 +754,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -802,7 +800,25 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -1215,10 +1231,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>53440</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56208.178438661707</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1303,10 +1319,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>55774.058577405856</c:v>
+                  <c:v>43333.333333333336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60123.966942148763</c:v>
+                  <c:v>35000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2106,47 +2122,29 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Pivot_Table!$A$9:$A$14</c:f>
+              <c:f>Pivot_Table!$A$9:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0-1 Miles</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1-2 Miles</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2-5 Miles</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5-10 Miles</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>More than 10 Miles</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot_Table!$B$9:$B$14</c:f>
+              <c:f>Pivot_Table!$B$9:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>166</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>78</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2234,47 +2232,26 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Pivot_Table!$A$9:$A$14</c:f>
+              <c:f>Pivot_Table!$A$9:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0-1 Miles</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1-2 Miles</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2-5 Miles</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5-10 Miles</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>More than 10 Miles</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot_Table!$C$9:$C$14</c:f>
+              <c:f>Pivot_Table!$C$9:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>33</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2906,35 +2883,26 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Pivot_Table!$A$18:$A$21</c:f>
+              <c:f>Pivot_Table!$A$18:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Adalosecent</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Middle Age</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Old</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot_Table!$B$18:$B$21</c:f>
+              <c:f>Pivot_Table!$B$18:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>71</c:v>
-                </c:pt>
+                <c:ptCount val="2"/>
                 <c:pt idx="1">
-                  <c:v>318</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>130</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3000,35 +2968,29 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Pivot_Table!$A$18:$A$21</c:f>
+              <c:f>Pivot_Table!$A$18:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Adalosecent</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Middle Age</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Old</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot_Table!$C$18:$C$21</c:f>
+              <c:f>Pivot_Table!$C$18:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>383</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>59</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3760,47 +3722,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Pivot_Table!$F$3:$F$8</c:f>
+              <c:f>Pivot_Table!$F$3:$F$4</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot_Table!$G$3:$G$8</c:f>
+              <c:f>Pivot_Table!$G$3:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>38</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3922,47 +3860,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Pivot_Table!$F$3:$F$8</c:f>
+              <c:f>Pivot_Table!$F$3:$F$4</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot_Table!$H$3:$H$8</c:f>
+              <c:f>Pivot_Table!$H$3:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5242,10 +5156,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>317</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>683</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24895,13 +24809,13 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3613F30C-DEB4-4F1D-BD1B-B7D66ED9B8FF}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A7:D14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6001489C-DCDD-4842-9DA0-AAF10949B2CE}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A16:D20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="3">
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -24911,47 +24825,35 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="6">
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item x="4"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
         <item x="0"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
       <items count="4">
+        <item x="2"/>
         <item x="0"/>
-        <item x="2"/>
         <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField axis="axisCol" dataField="1" showAll="0">
       <items count="3">
         <item x="0"/>
@@ -24961,23 +24863,14 @@
     </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="9"/>
+    <field x="12"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="3">
     <i>
       <x/>
     </i>
     <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
+      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -25039,6 +24932,141 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3613F30C-DEB4-4F1D-BD1B-B7D66ED9B8FF}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A7:D11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item x="4"/>
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="13"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Purchased Bike" fld="13" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F82BF03-D3AF-4EA4-9A7E-E552DA132F5D}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F15:G18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
@@ -25095,14 +25123,14 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{793E697E-C43C-4A5A-8BEC-B1563A630BE0}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A1:D5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="3">
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -25118,11 +25146,11 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="6">
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item x="4"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -25133,8 +25161,8 @@
     <pivotField showAll="0">
       <items count="4">
         <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -25180,7 +25208,7 @@
     <dataField name="Average of Income" fld="3" subtotal="average" baseField="2" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -25222,14 +25250,14 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A73DCD44-6947-47F4-89C0-FF3FA8545C95}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="F10:G13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="3">
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -25249,11 +25277,11 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="6">
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item x="4"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -25270,8 +25298,8 @@
     <pivotField showAll="0">
       <items count="4">
         <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -25352,14 +25380,14 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{52667415-D4BD-445C-9110-7F01B6B64BA1}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="No of Cars">
-  <location ref="F1:I8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="F1:I4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="3">
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -25369,11 +25397,11 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="6">
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item x="4"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -25393,8 +25421,8 @@
     <pivotField showAll="0">
       <items count="4">
         <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -25411,147 +25439,9 @@
   <rowFields count="1">
     <field x="8"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="2">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="13"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Purchased Bike" fld="13" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6001489C-DCDD-4842-9DA0-AAF10949B2CE}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A16:D21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="12"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -25624,7 +25514,7 @@
   <data>
     <tabular pivotCacheId="1184242226">
       <items count="2">
-        <i x="0" s="1"/>
+        <i x="0"/>
         <i x="1" s="1"/>
       </items>
     </tabular>
@@ -25644,11 +25534,11 @@
   <data>
     <tabular pivotCacheId="1184242226">
       <items count="5">
-        <i x="0" s="1"/>
+        <i x="0"/>
         <i x="4" s="1"/>
-        <i x="2" s="1"/>
-        <i x="1" s="1"/>
-        <i x="3" s="1"/>
+        <i x="2"/>
+        <i x="1"/>
+        <i x="3"/>
       </items>
     </tabular>
   </data>
@@ -25668,8 +25558,8 @@
     <tabular pivotCacheId="1184242226">
       <items count="3">
         <i x="0" s="1"/>
-        <i x="2" s="1"/>
-        <i x="1" s="1"/>
+        <i x="2"/>
+        <i x="1"/>
       </items>
     </tabular>
   </data>
@@ -71048,7 +70938,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8940C186-4189-4D55-88E4-FC83A37F767E}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
@@ -71058,11 +70948,11 @@
   <cols>
     <col min="1" max="1" width="21.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -71094,7 +70984,7 @@
         <v>38</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -71111,25 +71001,25 @@
         <v>34</v>
       </c>
       <c r="B3" s="5">
-        <v>53440</v>
+        <v>50000</v>
       </c>
       <c r="C3" s="5">
-        <v>55774.058577405856</v>
+        <v>43333.333333333336</v>
       </c>
       <c r="D3" s="5">
-        <v>54580.777096114522</v>
+        <v>44000</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>96</v>
-      </c>
-      <c r="H3">
-        <v>151</v>
-      </c>
-      <c r="I3">
-        <v>247</v>
+      <c r="G3" s="14">
+        <v>2</v>
+      </c>
+      <c r="H3" s="14">
+        <v>13</v>
+      </c>
+      <c r="I3" s="14">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -71137,25 +71027,25 @@
         <v>35</v>
       </c>
       <c r="B4" s="5">
-        <v>56208.178438661707</v>
+        <v>10000</v>
       </c>
       <c r="C4" s="5">
-        <v>60123.966942148763</v>
+        <v>35000</v>
       </c>
       <c r="D4" s="5">
-        <v>58062.62230919765</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>115</v>
-      </c>
-      <c r="H4">
-        <v>152</v>
-      </c>
-      <c r="I4">
-        <v>267</v>
+        <v>30000</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="14">
+        <v>2</v>
+      </c>
+      <c r="H4" s="14">
+        <v>13</v>
+      </c>
+      <c r="I4" s="14">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -71163,39 +71053,13 @@
         <v>38</v>
       </c>
       <c r="B5" s="5">
-        <v>54874.759152215796</v>
+        <v>30000</v>
       </c>
       <c r="C5" s="5">
-        <v>57962.577962577961</v>
+        <v>40769.230769230766</v>
       </c>
       <c r="D5" s="5">
-        <v>56360</v>
-      </c>
-      <c r="F5" s="4">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>218</v>
-      </c>
-      <c r="H5">
-        <v>124</v>
-      </c>
-      <c r="I5">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F6" s="4">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>52</v>
-      </c>
-      <c r="H6">
-        <v>33</v>
-      </c>
-      <c r="I6">
-        <v>85</v>
+        <v>39333.333333333336</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -71205,18 +71069,6 @@
       <c r="B7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="4">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>38</v>
-      </c>
-      <c r="H7">
-        <v>21</v>
-      </c>
-      <c r="I7">
-        <v>59</v>
-      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -71231,45 +71083,31 @@
       <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8">
-        <v>519</v>
-      </c>
-      <c r="H8">
-        <v>481</v>
-      </c>
-      <c r="I8">
-        <v>1000</v>
-      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9">
-        <v>166</v>
-      </c>
-      <c r="C9">
-        <v>200</v>
-      </c>
-      <c r="D9">
-        <v>366</v>
+      <c r="B9" s="14">
+        <v>1</v>
+      </c>
+      <c r="C9" s="14">
+        <v>13</v>
+      </c>
+      <c r="D9" s="14">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B10">
-        <v>92</v>
-      </c>
-      <c r="C10">
-        <v>77</v>
-      </c>
-      <c r="D10">
-        <v>169</v>
+      <c r="B10" s="14">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14">
+        <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>37</v>
@@ -71280,76 +71118,38 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>67</v>
-      </c>
-      <c r="C11">
-        <v>95</v>
-      </c>
-      <c r="D11">
-        <v>162</v>
+        <v>38</v>
+      </c>
+      <c r="B11" s="14">
+        <v>2</v>
+      </c>
+      <c r="C11" s="14">
+        <v>13</v>
+      </c>
+      <c r="D11" s="14">
+        <v>15</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G11">
-        <v>317</v>
+      <c r="G11" s="14">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>116</v>
-      </c>
-      <c r="C12">
-        <v>76</v>
-      </c>
-      <c r="D12">
-        <v>192</v>
-      </c>
       <c r="F12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G12">
-        <v>683</v>
+      <c r="G12" s="14">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13">
-        <v>78</v>
-      </c>
-      <c r="C13">
-        <v>33</v>
-      </c>
-      <c r="D13">
-        <v>111</v>
-      </c>
       <c r="F13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14">
-        <v>519</v>
-      </c>
-      <c r="C14">
-        <v>481</v>
-      </c>
-      <c r="D14">
-        <v>1000</v>
+      <c r="G13" s="14">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -71398,14 +71198,12 @@
       <c r="A18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B18">
-        <v>71</v>
-      </c>
-      <c r="C18">
-        <v>39</v>
-      </c>
-      <c r="D18">
-        <v>110</v>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14">
+        <v>1</v>
+      </c>
+      <c r="D18" s="14">
+        <v>1</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>38</v>
@@ -71418,42 +71216,28 @@
       <c r="A19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B19">
-        <v>318</v>
-      </c>
-      <c r="C19">
-        <v>383</v>
-      </c>
-      <c r="D19">
-        <v>701</v>
+      <c r="B19" s="14">
+        <v>2</v>
+      </c>
+      <c r="C19" s="14">
+        <v>12</v>
+      </c>
+      <c r="D19" s="14">
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20">
-        <v>130</v>
-      </c>
-      <c r="C20">
-        <v>59</v>
-      </c>
-      <c r="D20">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B21">
-        <v>519</v>
-      </c>
-      <c r="C21">
-        <v>481</v>
-      </c>
-      <c r="D21">
-        <v>1000</v>
+      <c r="B20" s="14">
+        <v>2</v>
+      </c>
+      <c r="C20" s="14">
+        <v>13</v>
+      </c>
+      <c r="D20" s="14">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
